--- a/fsdata/00126380_annual.xlsx
+++ b/fsdata/00126380_annual.xlsx
@@ -4626,7 +4626,7 @@
         <v>23797000000</v>
       </c>
       <c r="R53" t="n">
-        <v>28316000000</v>
+        <v>80101000000</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매각예정분류부채</t>
+          <t>매각예정분류기타자본항목</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
